--- a/data/trans_orig/IP18A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D30C80E4-56E4-4090-9EBB-432EABDE97B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A1C6A3-3999-4599-ACD8-A43DFD832E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78D264C5-68EE-4240-9837-840125E6B798}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B87418D3-AEEC-4554-8FF4-C45AAB52395A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -104,55 +104,55 @@
     <t>62,12%</t>
   </si>
   <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
   </si>
   <si>
     <t>57,6%</t>
   </si>
   <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>59,9%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>37,88%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>42,4%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
   </si>
   <si>
     <t>40,1%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,7 +161,7 @@
     <t>66,66%</t>
   </si>
   <si>
-    <t>62,91%</t>
+    <t>62,96%</t>
   </si>
   <si>
     <t>70,19%</t>
@@ -170,19 +170,19 @@
     <t>66,81%</t>
   </si>
   <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
   </si>
   <si>
     <t>66,73%</t>
   </si>
   <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>33,34%</t>
@@ -191,25 +191,25 @@
     <t>29,81%</t>
   </si>
   <si>
-    <t>37,09%</t>
+    <t>37,04%</t>
   </si>
   <si>
     <t>33,19%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -218,757 +218,739 @@
     <t>59,14%</t>
   </si>
   <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
   </si>
   <si>
     <t>55,54%</t>
   </si>
   <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>40,86%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
   </si>
   <si>
     <t>44,46%</t>
   </si>
   <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>64,36%</t>
   </si>
   <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>62,81%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>68,77%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2016 (Tasa respuesta: 91,02%)</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
     <t>61,35%</t>
   </si>
   <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2015 (Tasa respuesta: 91,02%)</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>58,23%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10794DDF-8BAD-4D8D-B8C2-E90375BF91F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D65E246-4905-4AFD-8681-6BBF3EFF6BAD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2281,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A85CDE-B376-4C79-9EE3-106AB1DF535F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF96C850-5E2A-4269-B611-13C4B6F5E63D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD3D4C7-1050-4277-8D57-B634A379D339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DB1408-2E36-4D7E-9193-91E451E902CE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3616,10 +3598,10 @@
         <v>190</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M10" s="7">
         <v>839</v>
@@ -3628,13 +3610,13 @@
         <v>575789</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3631,13 @@
         <v>151611</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>225</v>
@@ -3664,13 +3646,13 @@
         <v>146036</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="M11" s="7">
         <v>444</v>
@@ -3679,13 +3661,13 @@
         <v>297647</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3735,13 @@
         <v>104743</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -3768,13 +3750,13 @@
         <v>91461</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>287</v>
@@ -3783,13 +3765,13 @@
         <v>196205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3786,13 @@
         <v>67562</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>93</v>
@@ -3819,13 +3801,13 @@
         <v>62595</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>191</v>
@@ -3834,13 +3816,13 @@
         <v>130156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3890,13 @@
         <v>435992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>629</v>
@@ -3923,13 +3905,13 @@
         <v>421157</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>1249</v>
@@ -3938,13 +3920,13 @@
         <v>857149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3941,13 @@
         <v>235909</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H17" s="7">
         <v>345</v>
@@ -3974,13 +3956,13 @@
         <v>226120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
         <v>686</v>
@@ -3989,13 +3971,13 @@
         <v>462029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C640D62C-5CF2-40CD-A456-82CE24F15413}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6AB651-64F4-41C4-BBD1-6CBC792AEEC2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4088,7 +4070,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4332,13 +4314,13 @@
         <v>4347</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4347,13 +4329,13 @@
         <v>3778</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4362,13 +4344,13 @@
         <v>8125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,13 +4365,13 @@
         <v>4509</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -4398,13 +4380,13 @@
         <v>2796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4413,13 +4395,13 @@
         <v>7305</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4469,13 @@
         <v>27847</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -4502,13 +4484,13 @@
         <v>24459</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -4517,13 +4499,13 @@
         <v>52307</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,13 +4520,13 @@
         <v>60135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>63</v>
@@ -4553,13 +4535,13 @@
         <v>41550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>158</v>
@@ -4568,13 +4550,13 @@
         <v>101684</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,13 +4624,13 @@
         <v>7238</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4657,13 +4639,13 @@
         <v>7885</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -4672,13 +4654,13 @@
         <v>15122</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4675,13 @@
         <v>22350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -4708,13 +4690,13 @@
         <v>19455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -4723,13 +4705,13 @@
         <v>41806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4779,13 @@
         <v>39432</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -4812,13 +4794,13 @@
         <v>36122</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -4827,13 +4809,13 @@
         <v>75554</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,13 +4830,13 @@
         <v>86993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -4863,13 +4845,13 @@
         <v>63801</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>231</v>
@@ -4878,13 +4860,13 @@
         <v>150794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP18A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP18A03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A1C6A3-3999-4599-ACD8-A43DFD832E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B87F2805-808F-482D-B098-204179B9B32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B87418D3-AEEC-4554-8FF4-C45AAB52395A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2CD86E5A-1EDA-40FA-BF76-262A144A68C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,889 +68,880 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
     <t>66,66%</t>
   </si>
   <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2016 (Tasa respuesta: 91,02%)</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2012 (Tasa respuesta: 94,0%)</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2016 (Tasa respuesta: 91,02%)</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por diagnóstico y tratamiento en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D65E246-4905-4AFD-8681-6BBF3EFF6BAD}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CA9744-B683-461E-9F69-94F6DCD06B13}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1480,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>41125</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1495,81 +1486,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46001</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>87126</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>30272</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I5" s="7">
+        <v>28055</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>58327</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,151 +1573,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>71397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>111</v>
+      </c>
+      <c r="I6" s="7">
+        <v>74056</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>145453</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>69</v>
+        <v>373</v>
       </c>
       <c r="D7" s="7">
-        <v>46001</v>
+        <v>248760</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>60</v>
+        <v>410</v>
       </c>
       <c r="I7" s="7">
-        <v>41125</v>
+        <v>272851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>129</v>
+        <v>783</v>
       </c>
       <c r="N7" s="7">
-        <v>87126</v>
+        <v>521611</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>188</v>
+      </c>
+      <c r="D8" s="7">
+        <v>123566</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7">
-        <v>28055</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
+        <v>208</v>
+      </c>
+      <c r="I8" s="7">
+        <v>136460</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="7">
-        <v>30272</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="M8" s="7">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="N8" s="7">
-        <v>58327</v>
+        <v>260026</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,153 +1728,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>111</v>
+        <v>561</v>
       </c>
       <c r="D9" s="7">
-        <v>74056</v>
+        <v>372326</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>106</v>
+        <v>618</v>
       </c>
       <c r="I9" s="7">
-        <v>71397</v>
+        <v>409311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>217</v>
+        <v>1179</v>
       </c>
       <c r="N9" s="7">
-        <v>145453</v>
+        <v>781637</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>410</v>
+        <v>124</v>
       </c>
       <c r="D10" s="7">
-        <v>272851</v>
+        <v>85702</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>373</v>
+        <v>124</v>
       </c>
       <c r="I10" s="7">
-        <v>248760</v>
+        <v>82750</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>783</v>
+        <v>248</v>
       </c>
       <c r="N10" s="7">
-        <v>521611</v>
+        <v>168452</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>136460</v>
+        <v>68592</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7">
-        <v>123566</v>
+        <v>57171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>396</v>
+        <v>186</v>
       </c>
       <c r="N11" s="7">
-        <v>260026</v>
+        <v>125763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,153 +1883,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>618</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>409311</v>
+        <v>154294</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>561</v>
+        <v>209</v>
       </c>
       <c r="I12" s="7">
-        <v>372326</v>
+        <v>139921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1179</v>
+        <v>434</v>
       </c>
       <c r="N12" s="7">
-        <v>781637</v>
+        <v>294215</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>124</v>
+        <v>557</v>
       </c>
       <c r="D13" s="7">
-        <v>82750</v>
+        <v>375587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>124</v>
+        <v>603</v>
       </c>
       <c r="I13" s="7">
-        <v>85702</v>
+        <v>401602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>248</v>
+        <v>1160</v>
       </c>
       <c r="N13" s="7">
-        <v>168452</v>
+        <v>777189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>335</v>
+      </c>
+      <c r="D14" s="7">
+        <v>222431</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
+        <v>335</v>
+      </c>
+      <c r="I14" s="7">
+        <v>221686</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="7">
+        <v>670</v>
+      </c>
+      <c r="N14" s="7">
+        <v>444117</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="7">
-        <v>57171</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="7">
-        <v>101</v>
-      </c>
-      <c r="I14" s="7">
-        <v>68592</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" s="7">
-        <v>186</v>
-      </c>
-      <c r="N14" s="7">
-        <v>125763</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,216 +2038,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>209</v>
+        <v>892</v>
       </c>
       <c r="D15" s="7">
-        <v>139921</v>
+        <v>598018</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>938</v>
       </c>
       <c r="I15" s="7">
-        <v>154294</v>
+        <v>623288</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>434</v>
+        <v>1830</v>
       </c>
       <c r="N15" s="7">
-        <v>294215</v>
+        <v>1221306</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>603</v>
-      </c>
-      <c r="D16" s="7">
-        <v>401602</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>557</v>
-      </c>
-      <c r="I16" s="7">
-        <v>375587</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1160</v>
-      </c>
-      <c r="N16" s="7">
-        <v>777188</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>336</v>
-      </c>
-      <c r="D17" s="7">
-        <v>222412</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>335</v>
-      </c>
-      <c r="I17" s="7">
-        <v>222431</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>671</v>
-      </c>
-      <c r="N17" s="7">
-        <v>444844</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>939</v>
-      </c>
-      <c r="D18" s="7">
-        <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>892</v>
-      </c>
-      <c r="I18" s="7">
-        <v>598018</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1831</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1222032</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2263,8 +2104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF96C850-5E2A-4269-B611-13C4B6F5E63D}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD609564-4964-40B0-8D55-4869DE3EE672}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2280,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2381,96 +2222,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>53703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="I4" s="7">
+        <v>47093</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>100796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>32801</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="I5" s="7">
+        <v>30421</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>63222</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,151 +2324,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>86504</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="I6" s="7">
+        <v>77514</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>164018</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>403</v>
       </c>
       <c r="D7" s="7">
-        <v>47093</v>
+        <v>277931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="I7" s="7">
-        <v>53703</v>
+        <v>319244</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>144</v>
+        <v>862</v>
       </c>
       <c r="N7" s="7">
-        <v>100796</v>
+        <v>597176</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="D8" s="7">
-        <v>30421</v>
+        <v>147016</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="I8" s="7">
-        <v>32801</v>
+        <v>151132</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>90</v>
+        <v>424</v>
       </c>
       <c r="N8" s="7">
-        <v>63222</v>
+        <v>298147</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,153 +2479,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>109</v>
+        <v>615</v>
       </c>
       <c r="D9" s="7">
-        <v>77514</v>
+        <v>424947</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>125</v>
+        <v>671</v>
       </c>
       <c r="I9" s="7">
-        <v>86504</v>
+        <v>470376</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>234</v>
+        <v>1286</v>
       </c>
       <c r="N9" s="7">
-        <v>164018</v>
+        <v>895323</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>459</v>
+        <v>147</v>
       </c>
       <c r="D10" s="7">
-        <v>319244</v>
+        <v>104044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>403</v>
+        <v>144</v>
       </c>
       <c r="I10" s="7">
-        <v>277931</v>
+        <v>102503</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>862</v>
+        <v>291</v>
       </c>
       <c r="N10" s="7">
-        <v>597176</v>
+        <v>206547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>151132</v>
+        <v>52524</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>212</v>
+        <v>87</v>
       </c>
       <c r="I11" s="7">
-        <v>147016</v>
+        <v>61199</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>424</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7">
-        <v>298147</v>
+        <v>113723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,153 +2634,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>671</v>
+        <v>221</v>
       </c>
       <c r="D12" s="7">
-        <v>470376</v>
+        <v>156568</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>615</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7">
-        <v>424947</v>
+        <v>163702</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1286</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>895323</v>
+        <v>320270</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>628</v>
+      </c>
+      <c r="D13" s="7">
+        <v>435678</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="7">
+        <v>669</v>
+      </c>
+      <c r="I13" s="7">
+        <v>468840</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="7">
-        <v>102503</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1297</v>
+      </c>
+      <c r="N13" s="7">
+        <v>904518</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="7">
-        <v>104044</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="7">
-        <v>291</v>
-      </c>
-      <c r="N13" s="7">
-        <v>206547</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="D14" s="7">
-        <v>61199</v>
+        <v>232341</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
-        <v>74</v>
+        <v>342</v>
       </c>
       <c r="I14" s="7">
-        <v>52524</v>
+        <v>242751</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
-        <v>161</v>
+        <v>675</v>
       </c>
       <c r="N14" s="7">
-        <v>113723</v>
+        <v>475092</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,216 +2789,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>231</v>
+        <v>961</v>
       </c>
       <c r="D15" s="7">
-        <v>163702</v>
+        <v>668019</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>221</v>
+        <v>1011</v>
       </c>
       <c r="I15" s="7">
-        <v>156568</v>
+        <v>711591</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>452</v>
+        <v>1972</v>
       </c>
       <c r="N15" s="7">
-        <v>320270</v>
+        <v>1379610</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>669</v>
-      </c>
-      <c r="D16" s="7">
-        <v>468840</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H16" s="7">
-        <v>628</v>
-      </c>
-      <c r="I16" s="7">
-        <v>435678</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1297</v>
-      </c>
-      <c r="N16" s="7">
-        <v>904518</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>343</v>
-      </c>
-      <c r="D17" s="7">
-        <v>243392</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="7">
-        <v>333</v>
-      </c>
-      <c r="I17" s="7">
-        <v>232341</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="7">
-        <v>676</v>
-      </c>
-      <c r="N17" s="7">
-        <v>475733</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1012</v>
-      </c>
-      <c r="D18" s="7">
-        <v>712232</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>961</v>
-      </c>
-      <c r="I18" s="7">
-        <v>668019</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1973</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1380251</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3164,8 +2855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DB1408-2E36-4D7E-9193-91E451E902CE}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D3EFE7-1E70-4502-82B4-93CD5FF77729}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3181,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3282,88 +2973,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D4" s="7">
+        <v>38658</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="I4" s="7">
+        <v>46498</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="N4" s="7">
+        <v>85155</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17489</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="I5" s="7">
+        <v>16736</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>51</v>
+      </c>
+      <c r="N5" s="7">
+        <v>34225</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,147 +3075,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56147</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="I6" s="7">
+        <v>63234</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>174</v>
+      </c>
+      <c r="N6" s="7">
+        <v>119380</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>66</v>
+        <v>436</v>
       </c>
       <c r="D7" s="7">
-        <v>46498</v>
+        <v>291038</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>57</v>
+        <v>403</v>
       </c>
       <c r="I7" s="7">
-        <v>38658</v>
+        <v>284751</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>123</v>
+        <v>839</v>
       </c>
       <c r="N7" s="7">
-        <v>85155</v>
+        <v>575789</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>24</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7">
-        <v>16736</v>
+        <v>146036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="I8" s="7">
-        <v>17489</v>
+        <v>151611</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>51</v>
+        <v>444</v>
       </c>
       <c r="N8" s="7">
-        <v>34225</v>
+        <v>297647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,153 +3230,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>90</v>
+        <v>661</v>
       </c>
       <c r="D9" s="7">
-        <v>63234</v>
+        <v>437074</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>622</v>
       </c>
       <c r="I9" s="7">
-        <v>56147</v>
+        <v>436362</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>174</v>
+        <v>1283</v>
       </c>
       <c r="N9" s="7">
-        <v>119380</v>
+        <v>873436</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>403</v>
+        <v>136</v>
       </c>
       <c r="D10" s="7">
-        <v>284751</v>
+        <v>91461</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="I10" s="7">
-        <v>291038</v>
+        <v>104743</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>839</v>
+        <v>287</v>
       </c>
       <c r="N10" s="7">
-        <v>575789</v>
+        <v>196205</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>219</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7">
-        <v>151611</v>
+        <v>62595</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>225</v>
+        <v>98</v>
       </c>
       <c r="I11" s="7">
-        <v>146036</v>
+        <v>67562</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>444</v>
+        <v>191</v>
       </c>
       <c r="N11" s="7">
-        <v>297647</v>
+        <v>130156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,153 +3385,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>622</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>436362</v>
+        <v>154056</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>661</v>
+        <v>249</v>
       </c>
       <c r="I12" s="7">
-        <v>437074</v>
+        <v>172305</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1283</v>
+        <v>478</v>
       </c>
       <c r="N12" s="7">
-        <v>873436</v>
+        <v>326361</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>151</v>
+        <v>629</v>
       </c>
       <c r="D13" s="7">
-        <v>104743</v>
+        <v>421157</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>136</v>
+        <v>620</v>
       </c>
       <c r="I13" s="7">
-        <v>91461</v>
+        <v>435992</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>287</v>
+        <v>1249</v>
       </c>
       <c r="N13" s="7">
-        <v>196205</v>
+        <v>857149</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>98</v>
+        <v>345</v>
       </c>
       <c r="D14" s="7">
-        <v>67562</v>
+        <v>226120</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
-        <v>93</v>
+        <v>341</v>
       </c>
       <c r="I14" s="7">
-        <v>62595</v>
+        <v>235909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
-        <v>191</v>
+        <v>686</v>
       </c>
       <c r="N14" s="7">
-        <v>130156</v>
+        <v>462029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,216 +3540,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>249</v>
+        <v>974</v>
       </c>
       <c r="D15" s="7">
-        <v>172305</v>
+        <v>647277</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>961</v>
       </c>
       <c r="I15" s="7">
-        <v>154056</v>
+        <v>671901</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>478</v>
+        <v>1935</v>
       </c>
       <c r="N15" s="7">
-        <v>326361</v>
+        <v>1319178</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>620</v>
-      </c>
-      <c r="D16" s="7">
-        <v>435992</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="7">
-        <v>629</v>
-      </c>
-      <c r="I16" s="7">
-        <v>421157</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1249</v>
-      </c>
-      <c r="N16" s="7">
-        <v>857149</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>341</v>
-      </c>
-      <c r="D17" s="7">
-        <v>235909</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="7">
-        <v>345</v>
-      </c>
-      <c r="I17" s="7">
-        <v>226120</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M17" s="7">
-        <v>686</v>
-      </c>
-      <c r="N17" s="7">
-        <v>462029</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>961</v>
-      </c>
-      <c r="D18" s="7">
-        <v>671901</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>974</v>
-      </c>
-      <c r="I18" s="7">
-        <v>647277</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1935</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1319178</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4053,8 +3606,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6AB651-64F4-41C4-BBD1-6CBC792AEEC2}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6F6DDD-3565-411C-BF28-274D96DFC442}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4070,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4171,88 +3724,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3835</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4598</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8434</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2710</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4836</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7545</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,147 +3826,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>6545</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9434</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="N6" s="7">
+        <v>15979</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>4347</v>
+        <v>25190</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>3778</v>
+        <v>29602</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>8125</v>
+        <v>54792</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>4509</v>
+        <v>41048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7">
-        <v>2796</v>
+        <v>61647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="N8" s="7">
-        <v>7305</v>
+        <v>102695</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,153 +3981,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>8856</v>
+        <v>66238</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>6574</v>
+        <v>91249</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="N9" s="7">
-        <v>15430</v>
+        <v>157487</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>27847</v>
+        <v>8130</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>24459</v>
+        <v>7944</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>52307</v>
+        <v>16074</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>60135</v>
+        <v>19401</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>41550</v>
+        <v>22965</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="N11" s="7">
-        <v>101684</v>
+        <v>42367</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4565,153 +4136,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>87982</v>
+        <v>27531</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="I12" s="7">
-        <v>66009</v>
+        <v>30909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="N12" s="7">
-        <v>153991</v>
+        <v>58441</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>7238</v>
+        <v>37155</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>7885</v>
+        <v>42144</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="N13" s="7">
-        <v>15122</v>
+        <v>79300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7">
-        <v>22350</v>
+        <v>63159</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="I14" s="7">
-        <v>19455</v>
+        <v>89448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="N14" s="7">
-        <v>41806</v>
+        <v>152606</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,216 +4291,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7">
-        <v>29588</v>
+        <v>100314</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="I15" s="7">
-        <v>27340</v>
+        <v>131592</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>84</v>
+        <v>341</v>
       </c>
       <c r="N15" s="7">
-        <v>56928</v>
+        <v>231906</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>56</v>
-      </c>
-      <c r="D16" s="7">
-        <v>39432</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H16" s="7">
-        <v>54</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36122</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M16" s="7">
-        <v>110</v>
-      </c>
-      <c r="N16" s="7">
-        <v>75554</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>132</v>
-      </c>
-      <c r="D17" s="7">
-        <v>86993</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H17" s="7">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7">
-        <v>63801</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M17" s="7">
-        <v>231</v>
-      </c>
-      <c r="N17" s="7">
-        <v>150794</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>188</v>
-      </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
-      <c r="I18" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>341</v>
-      </c>
-      <c r="N18" s="7">
-        <v>226348</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
